--- a/data/trans_dic/P5_5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_5-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de balcón en su vivienda</t>
+          <t>Población que disfruta de balcón en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,12 +602,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>54,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>51,91%</t>
+          <t>53,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>46,67%</t>
+          <t>46,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>49,38%</t>
+          <t>49,9%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>46,29; 61,84</t>
+          <t>46,41; 61,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,93; 60,17</t>
+          <t>44,27; 61,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,54; 53,51</t>
+          <t>37,34; 52,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38,72; 55,05</t>
+          <t>38,61; 54,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,22; 55,22</t>
+          <t>44,56; 55,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,03; 55,15</t>
+          <t>44,1; 55,64</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>56,79%</t>
+          <t>57,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,17 +697,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,03%</t>
+          <t>37,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>46,6%</t>
+          <t>46,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,82%</t>
+          <t>48,07%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,25; 60,61</t>
+          <t>43,39; 60,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,46; 66,91</t>
+          <t>47,49; 66,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,74; 48,56</t>
+          <t>34,51; 47,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,02; 46,04</t>
+          <t>30,19; 44,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,68; 52,53</t>
+          <t>40,55; 52,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,12; 53,61</t>
+          <t>41,81; 54,43</t>
         </is>
       </c>
     </row>
@@ -766,17 +767,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>44,76%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>40,05%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,63; 50,07</t>
+          <t>36,48; 50,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,71; 45,33</t>
+          <t>29,34; 46,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,63; 49,95</t>
+          <t>39,23; 49,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,46; 48,98</t>
+          <t>37,9; 49,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,68; 48,34</t>
+          <t>39,36; 48,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,26; 44,87</t>
+          <t>35,59; 44,89</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>48,29%</t>
+          <t>48,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>43,69%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,84; 56,81</t>
+          <t>44,73; 56,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,48; 54,53</t>
+          <t>42,98; 55,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,7; 46,78</t>
+          <t>37,0; 46,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,52; 44,49</t>
+          <t>33,66; 44,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,84; 49,99</t>
+          <t>41,9; 49,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,23; 47,35</t>
+          <t>39,2; 47,79</t>
         </is>
       </c>
     </row>
@@ -926,7 +927,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>48,37%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +937,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>42,61%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>45,34%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,4; 55,97</t>
+          <t>41,92; 56,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,21; 56,13</t>
+          <t>41,86; 55,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,58; 51,42</t>
+          <t>39,11; 51,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,77; 49,36</t>
+          <t>36,06; 49,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>42,12; 51,35</t>
+          <t>42,37; 52,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,44; 50,53</t>
+          <t>40,75; 50,13</t>
         </is>
       </c>
     </row>
@@ -1006,17 +1007,17 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>46,21%</t>
+          <t>45,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>40,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>43,67%</t>
+          <t>42,67%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>43,25; 57,57</t>
+          <t>43,41; 57,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>36,92; 54,94</t>
+          <t>36,39; 53,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,05; 44,85</t>
+          <t>33,51; 45,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34,9; 48,84</t>
+          <t>34,32; 47,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,92; 48,17</t>
+          <t>39,48; 48,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,39; 49,38</t>
+          <t>37,19; 48,41</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1082,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>49,49%</t>
+          <t>49,5%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>47,19%</t>
+          <t>47,73%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1097,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>44,55%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>46,59; 52,45</t>
+          <t>46,5; 52,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,85; 50,57</t>
+          <t>44,14; 51,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,97; 44,9</t>
+          <t>40,06; 44,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>38,61; 44,5</t>
+          <t>38,73; 44,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,11; 48,03</t>
+          <t>44,03; 47,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,09; 46,46</t>
+          <t>42,48; 46,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de balcón en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>277505</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>266269</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>208648</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>218208</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>486153</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>484477</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>238075; 314840</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>222272; 307557</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>172855; 243450</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>181020; 253208</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>434824; 541104</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>428198; 540184</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>291187</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>330086</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>213227</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>195030</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>504414</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>525116</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>244474; 341791</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>272283; 383903</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>179037; 248118</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>156689; 231849</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>438893; 563786</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>456733; 594551</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>290098</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>247960</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>310695</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>312306</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>600793</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>560266</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>246547; 342957</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>201382; 318819</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>272369; 346428</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>270028; 352570</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>539273; 662373</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>497775; 627881</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>322412</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>316018</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>292889</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>266267</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>615301</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>582285</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>285592; 360538</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>278168; 358564</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>260224; 327416</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>230771; 306065</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>562114; 665146</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>522539; 636936</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>251133</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>238491</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>224790</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>216884</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>475924</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>455375</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>214607; 286768</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>207346; 276787</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>196485; 256395</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>183586; 249629</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>429811; 527917</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>409236; 503511</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>275007</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>247482</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>285443</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>291413</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>560449</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>538895</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>237400; 313830</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>198393; 289091</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>245003; 331137</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>246310; 343202</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>504522; 619332</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>469720; 611361</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>645.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>525.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>687.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>560.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1332.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1085.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1707343</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1646307</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1535692</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1500108</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3243035</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3146415</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1603974; 1809965</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1522556; 1770021</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1447232; 1623428</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1399366; 1600764</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3109669; 3376317</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2999768; 3307968</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>